--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BC/10/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BC/10/seed2/result_data_RandomForest.xlsx
@@ -482,7 +482,7 @@
         <v>-21.67</v>
       </c>
       <c r="B3" t="n">
-        <v>5.964299999999989</v>
+        <v>5.98769999999999</v>
       </c>
       <c r="C3" t="n">
         <v>-9.76</v>
@@ -788,7 +788,7 @@
         <v>-21.82</v>
       </c>
       <c r="B21" t="n">
-        <v>5.750399999999994</v>
+        <v>5.667399999999994</v>
       </c>
       <c r="C21" t="n">
         <v>-12.06</v>
@@ -822,7 +822,7 @@
         <v>-20.86</v>
       </c>
       <c r="B23" t="n">
-        <v>5.6936</v>
+        <v>5.723899999999999</v>
       </c>
       <c r="C23" t="n">
         <v>-10.59</v>
@@ -856,7 +856,7 @@
         <v>-21.66</v>
       </c>
       <c r="B25" t="n">
-        <v>5.907299999999992</v>
+        <v>5.884699999999994</v>
       </c>
       <c r="C25" t="n">
         <v>-14.32</v>
